--- a/attendance-files/FA-II/FA-II (D) Attendance Sheet.xlsx
+++ b/attendance-files/FA-II/FA-II (D) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="168">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -81,13 +81,13 @@
     <t>P</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>2021IPM004</t>
   </si>
   <si>
     <t>Aaradhya Shrivastava</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>2024PGP020</t>
@@ -529,7 +529,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dddd\,\ d\ mmmm\,\ yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -574,8 +574,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -598,6 +602,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDCE6F1"/>
         <bgColor rgb="FFDCE6F1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -890,7 +906,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -967,11 +983,11 @@
     <xf borderId="20" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="21" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="21" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="22" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -986,13 +1002,22 @@
     <xf borderId="25" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="21" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="21" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="21" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="21" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="21" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
@@ -1611,28 +1636,36 @@
       </c>
       <c r="E7" s="26">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
+      <c r="H7" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="O7" s="30"/>
       <c r="P7" s="30"/>
       <c r="Q7" s="30"/>
@@ -1653,38 +1686,46 @@
         <v>2</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
+        <v>4</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O8" s="37"/>
       <c r="P8" s="37"/>
       <c r="Q8" s="37"/>
@@ -1715,28 +1756,36 @@
       </c>
       <c r="E9" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
+        <v>3</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O9" s="37"/>
       <c r="P9" s="37"/>
       <c r="Q9" s="37"/>
@@ -1771,24 +1820,32 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
+        <v>6</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O10" s="37"/>
       <c r="P10" s="37"/>
       <c r="Q10" s="37"/>
@@ -1823,24 +1880,32 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
+        <v>8</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O11" s="37"/>
       <c r="P11" s="37"/>
       <c r="Q11" s="37"/>
@@ -1875,24 +1940,32 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
+        <v>8</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O12" s="37"/>
       <c r="P12" s="37"/>
       <c r="Q12" s="37"/>
@@ -1927,24 +2000,32 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
+        <v>8</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O13" s="37"/>
       <c r="P13" s="37"/>
       <c r="Q13" s="37"/>
@@ -1979,24 +2060,32 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
+        <v>8</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O14" s="37"/>
       <c r="P14" s="37"/>
       <c r="Q14" s="37"/>
@@ -2031,24 +2120,32 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
+        <v>7</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="38" t="s">
+        <v>20</v>
+      </c>
       <c r="O15" s="37"/>
       <c r="P15" s="37"/>
       <c r="Q15" s="37"/>
@@ -2083,24 +2180,32 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
+        <v>8</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O16" s="37"/>
       <c r="P16" s="37"/>
       <c r="Q16" s="37"/>
@@ -2131,28 +2236,36 @@
       </c>
       <c r="E17" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
+        <v>4</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
       <c r="Q17" s="37"/>
@@ -2183,28 +2296,36 @@
       </c>
       <c r="E18" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
+        <v>6</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
       <c r="Q18" s="37"/>
@@ -2235,28 +2356,36 @@
       </c>
       <c r="E19" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
+        <v>6</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="O19" s="37"/>
       <c r="P19" s="37"/>
       <c r="Q19" s="37"/>
@@ -2287,28 +2416,36 @@
       </c>
       <c r="E20" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
+        <v>7</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O20" s="37"/>
       <c r="P20" s="37"/>
       <c r="Q20" s="37"/>
@@ -2343,24 +2480,32 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G21" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
+        <v>8</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O21" s="37"/>
       <c r="P21" s="37"/>
       <c r="Q21" s="37"/>
@@ -2395,24 +2540,32 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G22" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
+        <v>8</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O22" s="37"/>
       <c r="P22" s="37"/>
       <c r="Q22" s="37"/>
@@ -2447,24 +2600,32 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G23" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
+        <v>6</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O23" s="37"/>
       <c r="P23" s="37"/>
       <c r="Q23" s="37"/>
@@ -2499,24 +2660,32 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G24" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
+        <v>7</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="O24" s="37"/>
       <c r="P24" s="37"/>
       <c r="Q24" s="37"/>
@@ -2551,24 +2720,32 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G25" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
+        <v>7</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O25" s="37"/>
       <c r="P25" s="37"/>
       <c r="Q25" s="37"/>
@@ -2603,24 +2780,32 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G26" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
+        <v>7</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O26" s="37"/>
       <c r="P26" s="37"/>
       <c r="Q26" s="37"/>
@@ -2651,28 +2836,36 @@
       </c>
       <c r="E27" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G27" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
+        <v>6</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O27" s="37"/>
       <c r="P27" s="37"/>
       <c r="Q27" s="37"/>
@@ -2707,24 +2900,32 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G28" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
+        <v>6</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O28" s="37"/>
       <c r="P28" s="37"/>
       <c r="Q28" s="37"/>
@@ -2759,24 +2960,32 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G29" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
+        <v>8</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O29" s="37"/>
       <c r="P29" s="37"/>
       <c r="Q29" s="37"/>
@@ -2811,24 +3020,32 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G30" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
+        <v>7</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N30" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O30" s="37"/>
       <c r="P30" s="37"/>
       <c r="Q30" s="37"/>
@@ -2863,24 +3080,32 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G31" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
+        <v>8</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N31" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O31" s="37"/>
       <c r="P31" s="37"/>
       <c r="Q31" s="37"/>
@@ -2915,24 +3140,32 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G32" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
+        <v>8</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O32" s="37"/>
       <c r="P32" s="37"/>
       <c r="Q32" s="37"/>
@@ -2967,24 +3200,32 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G33" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="J33" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
+        <v>6</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N33" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O33" s="37"/>
       <c r="P33" s="37"/>
       <c r="Q33" s="37"/>
@@ -3019,24 +3260,32 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G34" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
+        <v>8</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N34" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O34" s="37"/>
       <c r="P34" s="37"/>
       <c r="Q34" s="37"/>
@@ -3071,24 +3320,32 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G35" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
+        <v>8</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O35" s="37"/>
       <c r="P35" s="37"/>
       <c r="Q35" s="37"/>
@@ -3123,24 +3380,32 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G36" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H36" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="J36" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
+        <v>6</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N36" s="40" t="s">
+        <v>20</v>
+      </c>
       <c r="O36" s="37"/>
       <c r="P36" s="37"/>
       <c r="Q36" s="37"/>
@@ -3171,28 +3436,36 @@
       </c>
       <c r="E37" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G37" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
+        <v>7</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="O37" s="37"/>
       <c r="P37" s="37"/>
       <c r="Q37" s="37"/>
@@ -3223,28 +3496,36 @@
       </c>
       <c r="E38" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G38" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H38" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="J38" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
+        <v>6</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N38" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="O38" s="37"/>
       <c r="P38" s="37"/>
       <c r="Q38" s="37"/>
@@ -3279,24 +3560,32 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G39" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
+        <v>8</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N39" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O39" s="37"/>
       <c r="P39" s="37"/>
       <c r="Q39" s="37"/>
@@ -3331,24 +3620,32 @@
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G40" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I40" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J40" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
+        <v>8</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N40" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O40" s="37"/>
       <c r="P40" s="37"/>
       <c r="Q40" s="37"/>
@@ -3379,28 +3676,36 @@
       </c>
       <c r="E41" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G41" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H41" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="I41" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J41" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
+        <v>4</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M41" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N41" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="O41" s="37"/>
       <c r="P41" s="37"/>
       <c r="Q41" s="37"/>
@@ -3431,28 +3736,36 @@
       </c>
       <c r="E42" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G42" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H42" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I42" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J42" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
+        <v>5</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="O42" s="37"/>
       <c r="P42" s="37"/>
       <c r="Q42" s="37"/>
@@ -3487,24 +3800,32 @@
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G43" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H43" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J43" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="37"/>
+        <v>8</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N43" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O43" s="37"/>
       <c r="P43" s="37"/>
       <c r="Q43" s="37"/>
@@ -3539,24 +3860,32 @@
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G44" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I44" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="J44" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="37"/>
+        <v>7</v>
+      </c>
+      <c r="G44" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N44" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O44" s="37"/>
       <c r="P44" s="37"/>
       <c r="Q44" s="37"/>
@@ -3587,28 +3916,36 @@
       </c>
       <c r="E45" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G45" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H45" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J45" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="37"/>
+        <v>6</v>
+      </c>
+      <c r="G45" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M45" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N45" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O45" s="37"/>
       <c r="P45" s="37"/>
       <c r="Q45" s="37"/>
@@ -3643,24 +3980,32 @@
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G46" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H46" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I46" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J46" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="37"/>
-      <c r="N46" s="37"/>
+        <v>8</v>
+      </c>
+      <c r="G46" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N46" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O46" s="37"/>
       <c r="P46" s="37"/>
       <c r="Q46" s="37"/>
@@ -3691,28 +4036,36 @@
       </c>
       <c r="E47" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G47" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H47" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="I47" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J47" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K47" s="37"/>
-      <c r="L47" s="37"/>
-      <c r="M47" s="37"/>
-      <c r="N47" s="37"/>
+        <v>6</v>
+      </c>
+      <c r="G47" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M47" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N47" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="O47" s="37"/>
       <c r="P47" s="37"/>
       <c r="Q47" s="37"/>
@@ -3743,28 +4096,36 @@
       </c>
       <c r="E48" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G48" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H48" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I48" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J48" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="37"/>
-      <c r="N48" s="37"/>
+        <v>7</v>
+      </c>
+      <c r="G48" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N48" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O48" s="37"/>
       <c r="P48" s="37"/>
       <c r="Q48" s="37"/>
@@ -3799,24 +4160,32 @@
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G49" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H49" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I49" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J49" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="37"/>
-      <c r="N49" s="37"/>
+        <v>8</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N49" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O49" s="37"/>
       <c r="P49" s="37"/>
       <c r="Q49" s="37"/>
@@ -3851,24 +4220,32 @@
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G50" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H50" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I50" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J50" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="37"/>
-      <c r="N50" s="37"/>
+        <v>8</v>
+      </c>
+      <c r="G50" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M50" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N50" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O50" s="37"/>
       <c r="P50" s="37"/>
       <c r="Q50" s="37"/>
@@ -3899,28 +4276,36 @@
       </c>
       <c r="E51" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G51" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H51" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I51" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J51" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K51" s="37"/>
-      <c r="L51" s="37"/>
-      <c r="M51" s="37"/>
-      <c r="N51" s="37"/>
+        <v>7</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K51" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M51" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N51" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="O51" s="37"/>
       <c r="P51" s="37"/>
       <c r="Q51" s="37"/>
@@ -3955,24 +4340,32 @@
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G52" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H52" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I52" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J52" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="37"/>
+        <v>8</v>
+      </c>
+      <c r="G52" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K52" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L52" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M52" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N52" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O52" s="37"/>
       <c r="P52" s="37"/>
       <c r="Q52" s="37"/>
@@ -4003,28 +4396,36 @@
       </c>
       <c r="E53" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G53" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H53" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I53" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J53" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K53" s="37"/>
-      <c r="L53" s="37"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="37"/>
+        <v>7</v>
+      </c>
+      <c r="G53" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M53" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N53" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="O53" s="37"/>
       <c r="P53" s="37"/>
       <c r="Q53" s="37"/>
@@ -4059,24 +4460,32 @@
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G54" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H54" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I54" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="J54" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="K54" s="37"/>
-      <c r="L54" s="37"/>
-      <c r="M54" s="37"/>
-      <c r="N54" s="37"/>
+        <v>6</v>
+      </c>
+      <c r="G54" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M54" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N54" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O54" s="37"/>
       <c r="P54" s="37"/>
       <c r="Q54" s="37"/>
@@ -4107,28 +4516,36 @@
       </c>
       <c r="E55" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G55" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H55" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I55" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J55" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="37"/>
+        <v>7</v>
+      </c>
+      <c r="G55" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K55" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M55" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N55" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O55" s="37"/>
       <c r="P55" s="37"/>
       <c r="Q55" s="37"/>
@@ -4159,28 +4576,36 @@
       </c>
       <c r="E56" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G56" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H56" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I56" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="J56" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="37"/>
+        <v>6</v>
+      </c>
+      <c r="G56" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J56" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K56" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M56" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N56" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O56" s="37"/>
       <c r="P56" s="37"/>
       <c r="Q56" s="37"/>
@@ -4211,28 +4636,36 @@
       </c>
       <c r="E57" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G57" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H57" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="I57" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="J57" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="K57" s="37"/>
-      <c r="L57" s="37"/>
-      <c r="M57" s="37"/>
-      <c r="N57" s="37"/>
+        <v>2</v>
+      </c>
+      <c r="G57" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J57" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K57" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L57" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M57" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N57" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O57" s="37"/>
       <c r="P57" s="37"/>
       <c r="Q57" s="37"/>
@@ -4267,24 +4700,32 @@
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G58" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H58" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I58" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J58" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="K58" s="37"/>
-      <c r="L58" s="37"/>
-      <c r="M58" s="37"/>
-      <c r="N58" s="37"/>
+        <v>7</v>
+      </c>
+      <c r="G58" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K58" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M58" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N58" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O58" s="37"/>
       <c r="P58" s="37"/>
       <c r="Q58" s="37"/>
@@ -4319,24 +4760,32 @@
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G59" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H59" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I59" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J59" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K59" s="37"/>
-      <c r="L59" s="37"/>
-      <c r="M59" s="37"/>
-      <c r="N59" s="37"/>
+        <v>8</v>
+      </c>
+      <c r="G59" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J59" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K59" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L59" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M59" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N59" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O59" s="37"/>
       <c r="P59" s="37"/>
       <c r="Q59" s="37"/>
@@ -4367,28 +4816,36 @@
       </c>
       <c r="E60" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G60" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H60" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I60" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J60" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K60" s="37"/>
-      <c r="L60" s="37"/>
-      <c r="M60" s="37"/>
-      <c r="N60" s="37"/>
+        <v>7</v>
+      </c>
+      <c r="G60" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K60" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M60" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N60" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="O60" s="37"/>
       <c r="P60" s="37"/>
       <c r="Q60" s="37"/>
@@ -4419,28 +4876,36 @@
       </c>
       <c r="E61" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G61" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H61" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I61" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J61" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K61" s="37"/>
-      <c r="L61" s="37"/>
-      <c r="M61" s="37"/>
-      <c r="N61" s="37"/>
+        <v>6</v>
+      </c>
+      <c r="G61" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I61" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K61" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L61" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M61" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N61" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O61" s="37"/>
       <c r="P61" s="37"/>
       <c r="Q61" s="37"/>
@@ -4471,28 +4936,36 @@
       </c>
       <c r="E62" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G62" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H62" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I62" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J62" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="K62" s="37"/>
-      <c r="L62" s="37"/>
-      <c r="M62" s="37"/>
-      <c r="N62" s="37"/>
+        <v>6</v>
+      </c>
+      <c r="G62" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I62" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K62" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L62" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M62" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N62" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O62" s="37"/>
       <c r="P62" s="37"/>
       <c r="Q62" s="37"/>
@@ -4523,28 +4996,36 @@
       </c>
       <c r="E63" s="26">
         <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F63" s="34">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F63" s="34">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G63" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H63" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="I63" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="J63" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="K63" s="37"/>
-      <c r="L63" s="37"/>
-      <c r="M63" s="37"/>
-      <c r="N63" s="37"/>
+      <c r="G63" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H63" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J63" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K63" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L63" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M63" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N63" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="O63" s="37"/>
       <c r="P63" s="37"/>
       <c r="Q63" s="37"/>
@@ -4579,24 +5060,32 @@
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G64" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H64" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I64" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J64" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K64" s="37"/>
-      <c r="L64" s="37"/>
-      <c r="M64" s="37"/>
-      <c r="N64" s="37"/>
+        <v>8</v>
+      </c>
+      <c r="G64" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J64" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K64" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M64" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N64" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O64" s="37"/>
       <c r="P64" s="37"/>
       <c r="Q64" s="37"/>
@@ -4627,28 +5116,36 @@
       </c>
       <c r="E65" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G65" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H65" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I65" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J65" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K65" s="37"/>
-      <c r="L65" s="37"/>
-      <c r="M65" s="37"/>
-      <c r="N65" s="37"/>
+        <v>7</v>
+      </c>
+      <c r="G65" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K65" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L65" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M65" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N65" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O65" s="37"/>
       <c r="P65" s="37"/>
       <c r="Q65" s="37"/>
@@ -4679,28 +5176,36 @@
       </c>
       <c r="E66" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G66" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H66" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I66" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J66" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K66" s="37"/>
-      <c r="L66" s="37"/>
-      <c r="M66" s="37"/>
-      <c r="N66" s="37"/>
+        <v>4</v>
+      </c>
+      <c r="G66" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H66" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I66" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J66" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K66" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L66" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M66" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N66" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O66" s="37"/>
       <c r="P66" s="37"/>
       <c r="Q66" s="37"/>
@@ -4735,24 +5240,32 @@
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G67" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H67" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I67" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J67" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="K67" s="37"/>
-      <c r="L67" s="37"/>
-      <c r="M67" s="37"/>
-      <c r="N67" s="37"/>
+        <v>7</v>
+      </c>
+      <c r="G67" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H67" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I67" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K67" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M67" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N67" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O67" s="37"/>
       <c r="P67" s="37"/>
       <c r="Q67" s="37"/>
@@ -4787,24 +5300,32 @@
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G68" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H68" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I68" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J68" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K68" s="37"/>
-      <c r="L68" s="37"/>
-      <c r="M68" s="37"/>
-      <c r="N68" s="37"/>
+        <v>8</v>
+      </c>
+      <c r="G68" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J68" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K68" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L68" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M68" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N68" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O68" s="37"/>
       <c r="P68" s="37"/>
       <c r="Q68" s="37"/>
@@ -4839,24 +5360,32 @@
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G69" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H69" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I69" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J69" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K69" s="37"/>
-      <c r="L69" s="37"/>
-      <c r="M69" s="37"/>
-      <c r="N69" s="37"/>
+        <v>8</v>
+      </c>
+      <c r="G69" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I69" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J69" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K69" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M69" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N69" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O69" s="37"/>
       <c r="P69" s="37"/>
       <c r="Q69" s="37"/>
@@ -4891,24 +5420,32 @@
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G70" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H70" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="I70" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J70" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K70" s="37"/>
-      <c r="L70" s="37"/>
-      <c r="M70" s="37"/>
-      <c r="N70" s="37"/>
+        <v>7</v>
+      </c>
+      <c r="G70" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H70" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I70" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J70" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K70" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M70" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N70" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O70" s="37"/>
       <c r="P70" s="37"/>
       <c r="Q70" s="37"/>
@@ -4939,28 +5476,36 @@
       </c>
       <c r="E71" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G71" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H71" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I71" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J71" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K71" s="37"/>
-      <c r="L71" s="37"/>
-      <c r="M71" s="37"/>
-      <c r="N71" s="37"/>
+        <v>7</v>
+      </c>
+      <c r="G71" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J71" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K71" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L71" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M71" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N71" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O71" s="37"/>
       <c r="P71" s="37"/>
       <c r="Q71" s="37"/>
@@ -4991,28 +5536,36 @@
       </c>
       <c r="E72" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G72" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H72" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I72" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J72" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K72" s="37"/>
-      <c r="L72" s="37"/>
-      <c r="M72" s="37"/>
-      <c r="N72" s="37"/>
+        <v>6</v>
+      </c>
+      <c r="G72" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H72" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J72" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K72" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L72" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M72" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N72" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O72" s="37"/>
       <c r="P72" s="37"/>
       <c r="Q72" s="37"/>
@@ -5043,28 +5596,36 @@
       </c>
       <c r="E73" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G73" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H73" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="I73" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J73" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K73" s="37"/>
-      <c r="L73" s="37"/>
-      <c r="M73" s="37"/>
-      <c r="N73" s="37"/>
+        <v>6</v>
+      </c>
+      <c r="G73" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I73" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J73" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K73" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L73" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M73" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N73" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="O73" s="37"/>
       <c r="P73" s="37"/>
       <c r="Q73" s="37"/>
@@ -5095,28 +5656,36 @@
       </c>
       <c r="E74" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G74" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H74" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I74" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="J74" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="K74" s="37"/>
-      <c r="L74" s="37"/>
-      <c r="M74" s="37"/>
-      <c r="N74" s="37"/>
+        <v>4</v>
+      </c>
+      <c r="G74" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H74" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I74" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J74" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K74" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L74" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M74" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N74" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="O74" s="37"/>
       <c r="P74" s="37"/>
       <c r="Q74" s="37"/>
@@ -5151,24 +5720,32 @@
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G75" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H75" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="I75" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J75" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K75" s="37"/>
-      <c r="L75" s="37"/>
-      <c r="M75" s="37"/>
-      <c r="N75" s="37"/>
+        <v>7</v>
+      </c>
+      <c r="G75" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H75" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I75" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J75" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K75" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L75" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M75" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N75" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O75" s="37"/>
       <c r="P75" s="37"/>
       <c r="Q75" s="37"/>
@@ -5199,28 +5776,36 @@
       </c>
       <c r="E76" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G76" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H76" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I76" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J76" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K76" s="37"/>
-      <c r="L76" s="37"/>
-      <c r="M76" s="37"/>
-      <c r="N76" s="37"/>
+        <v>7</v>
+      </c>
+      <c r="G76" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H76" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I76" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J76" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K76" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L76" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M76" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N76" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O76" s="37"/>
       <c r="P76" s="37"/>
       <c r="Q76" s="37"/>
@@ -5251,28 +5836,36 @@
       </c>
       <c r="E77" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G77" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H77" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I77" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J77" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K77" s="37"/>
-      <c r="L77" s="37"/>
-      <c r="M77" s="37"/>
-      <c r="N77" s="37"/>
+        <v>7</v>
+      </c>
+      <c r="G77" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H77" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I77" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J77" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K77" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L77" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M77" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N77" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O77" s="37"/>
       <c r="P77" s="37"/>
       <c r="Q77" s="37"/>
@@ -5307,24 +5900,32 @@
       </c>
       <c r="F78" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G78" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H78" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="I78" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J78" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K78" s="37"/>
-      <c r="L78" s="37"/>
-      <c r="M78" s="37"/>
-      <c r="N78" s="37"/>
+        <v>7</v>
+      </c>
+      <c r="G78" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H78" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I78" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J78" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K78" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L78" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M78" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N78" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O78" s="37"/>
       <c r="P78" s="37"/>
       <c r="Q78" s="37"/>
@@ -5359,24 +5960,32 @@
       </c>
       <c r="F79" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G79" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H79" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I79" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J79" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K79" s="37"/>
-      <c r="L79" s="37"/>
-      <c r="M79" s="37"/>
-      <c r="N79" s="37"/>
+        <v>8</v>
+      </c>
+      <c r="G79" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H79" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I79" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J79" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K79" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L79" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M79" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N79" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="O79" s="37"/>
       <c r="P79" s="37"/>
       <c r="Q79" s="37"/>
@@ -5407,28 +6016,36 @@
       </c>
       <c r="E80" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G80" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H80" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I80" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J80" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K80" s="37"/>
-      <c r="L80" s="37"/>
-      <c r="M80" s="37"/>
-      <c r="N80" s="37"/>
+        <v>7</v>
+      </c>
+      <c r="G80" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H80" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I80" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J80" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K80" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L80" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M80" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N80" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="O80" s="37"/>
       <c r="P80" s="37"/>
       <c r="Q80" s="37"/>
@@ -5459,7 +6076,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G81" s="38"/>
+      <c r="G81" s="41"/>
       <c r="H81" s="37"/>
       <c r="I81" s="37"/>
       <c r="J81" s="37"/>
@@ -5497,7 +6114,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G82" s="38"/>
+      <c r="G82" s="41"/>
       <c r="H82" s="37"/>
       <c r="I82" s="37"/>
       <c r="J82" s="37"/>
@@ -5535,7 +6152,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G83" s="38"/>
+      <c r="G83" s="41"/>
       <c r="H83" s="37"/>
       <c r="I83" s="37"/>
       <c r="J83" s="37"/>
@@ -5573,7 +6190,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G84" s="38"/>
+      <c r="G84" s="41"/>
       <c r="H84" s="37"/>
       <c r="I84" s="37"/>
       <c r="J84" s="37"/>
@@ -5600,8 +6217,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B85" s="39"/>
-      <c r="C85" s="39"/>
+      <c r="B85" s="42"/>
+      <c r="C85" s="42"/>
       <c r="D85" s="26"/>
       <c r="E85" s="26" t="str">
         <f t="shared" si="1"/>
@@ -5611,7 +6228,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G85" s="38"/>
+      <c r="G85" s="41"/>
       <c r="H85" s="37"/>
       <c r="I85" s="37"/>
       <c r="J85" s="37"/>
@@ -5638,8 +6255,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B86" s="39"/>
-      <c r="C86" s="39"/>
+      <c r="B86" s="42"/>
+      <c r="C86" s="42"/>
       <c r="D86" s="26"/>
       <c r="E86" s="26" t="str">
         <f t="shared" si="1"/>
@@ -5649,7 +6266,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G86" s="38"/>
+      <c r="G86" s="41"/>
       <c r="H86" s="37"/>
       <c r="I86" s="37"/>
       <c r="J86" s="37"/>
@@ -5676,8 +6293,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B87" s="39"/>
-      <c r="C87" s="39"/>
+      <c r="B87" s="42"/>
+      <c r="C87" s="42"/>
       <c r="D87" s="26"/>
       <c r="E87" s="26" t="str">
         <f t="shared" si="1"/>
@@ -5687,7 +6304,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G87" s="38"/>
+      <c r="G87" s="41"/>
       <c r="H87" s="37"/>
       <c r="I87" s="37"/>
       <c r="J87" s="37"/>
@@ -5714,8 +6331,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B88" s="39"/>
-      <c r="C88" s="39"/>
+      <c r="B88" s="42"/>
+      <c r="C88" s="42"/>
       <c r="D88" s="26"/>
       <c r="E88" s="26" t="str">
         <f t="shared" si="1"/>
@@ -5725,7 +6342,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G88" s="38"/>
+      <c r="G88" s="41"/>
       <c r="H88" s="37"/>
       <c r="I88" s="37"/>
       <c r="J88" s="37"/>
@@ -5752,8 +6369,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B89" s="39"/>
-      <c r="C89" s="39"/>
+      <c r="B89" s="42"/>
+      <c r="C89" s="42"/>
       <c r="D89" s="26"/>
       <c r="E89" s="26" t="str">
         <f t="shared" si="1"/>
@@ -5763,7 +6380,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G89" s="38"/>
+      <c r="G89" s="41"/>
       <c r="H89" s="37"/>
       <c r="I89" s="37"/>
       <c r="J89" s="37"/>
@@ -5790,8 +6407,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B90" s="39"/>
-      <c r="C90" s="39"/>
+      <c r="B90" s="42"/>
+      <c r="C90" s="42"/>
       <c r="D90" s="26"/>
       <c r="E90" s="26" t="str">
         <f t="shared" si="1"/>
@@ -5801,7 +6418,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G90" s="38"/>
+      <c r="G90" s="41"/>
       <c r="H90" s="37"/>
       <c r="I90" s="37"/>
       <c r="J90" s="37"/>
@@ -5828,8 +6445,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B91" s="39"/>
-      <c r="C91" s="39"/>
+      <c r="B91" s="42"/>
+      <c r="C91" s="42"/>
       <c r="D91" s="26"/>
       <c r="E91" s="26" t="str">
         <f t="shared" si="1"/>
@@ -5839,7 +6456,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G91" s="38"/>
+      <c r="G91" s="41"/>
       <c r="H91" s="37"/>
       <c r="I91" s="37"/>
       <c r="J91" s="37"/>
@@ -5866,8 +6483,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B92" s="39"/>
-      <c r="C92" s="39"/>
+      <c r="B92" s="42"/>
+      <c r="C92" s="42"/>
       <c r="D92" s="26"/>
       <c r="E92" s="26" t="str">
         <f t="shared" si="1"/>
@@ -5877,7 +6494,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G92" s="38"/>
+      <c r="G92" s="41"/>
       <c r="H92" s="37"/>
       <c r="I92" s="37"/>
       <c r="J92" s="37"/>
@@ -5904,8 +6521,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B93" s="39"/>
-      <c r="C93" s="39"/>
+      <c r="B93" s="42"/>
+      <c r="C93" s="42"/>
       <c r="D93" s="26"/>
       <c r="E93" s="26" t="str">
         <f t="shared" si="1"/>
@@ -5915,7 +6532,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G93" s="38"/>
+      <c r="G93" s="41"/>
       <c r="H93" s="37"/>
       <c r="I93" s="37"/>
       <c r="J93" s="37"/>
@@ -5942,8 +6559,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B94" s="39"/>
-      <c r="C94" s="39"/>
+      <c r="B94" s="42"/>
+      <c r="C94" s="42"/>
       <c r="D94" s="26"/>
       <c r="E94" s="26" t="str">
         <f t="shared" si="1"/>
@@ -5953,7 +6570,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G94" s="38"/>
+      <c r="G94" s="41"/>
       <c r="H94" s="37"/>
       <c r="I94" s="37"/>
       <c r="J94" s="37"/>
@@ -5980,8 +6597,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B95" s="39"/>
-      <c r="C95" s="39"/>
+      <c r="B95" s="42"/>
+      <c r="C95" s="42"/>
       <c r="D95" s="26"/>
       <c r="E95" s="26" t="str">
         <f t="shared" si="1"/>
@@ -5991,7 +6608,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G95" s="38"/>
+      <c r="G95" s="41"/>
       <c r="H95" s="37"/>
       <c r="I95" s="37"/>
       <c r="J95" s="37"/>

--- a/attendance-files/FA-II/FA-II (D) Attendance Sheet.xlsx
+++ b/attendance-files/FA-II/FA-II (D) Attendance Sheet.xlsx
@@ -1824,29 +1824,29 @@
       </c>
       <c r="E9" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F9" s="37">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="38" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I9" s="40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J9" s="40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K9" s="40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L9" s="40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M9" s="31" t="s">
         <v>20</v>
